--- a/TestWorkbook.xlsx
+++ b/TestWorkbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\source\repos\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0706E9-0C57-4663-B15A-C55D8CC7D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6BEEC5-11C7-4978-B00F-16E872C1B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{8F24163C-8AC2-4BEA-80F1-B654281B7436}"/>
   </bookViews>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A901D3B3-FCA8-45DE-9706-86C85937436D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +404,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestWorkbook.xlsx
+++ b/TestWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\source\repos\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6BEEC5-11C7-4978-B00F-16E872C1B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B2410B-107C-4336-91F2-847423DF2510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{8F24163C-8AC2-4BEA-80F1-B654281B7436}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -393,15 +396,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A901D3B3-FCA8-45DE-9706-86C85937436D}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
